--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1640" windowWidth="28240" windowHeight="12000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="28240" windowHeight="12000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>git commit - am "blabla"</t>
   </si>
 </sst>
 </file>
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67:N72"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,43 +1121,43 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1157,64 +1166,75 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>59</v>
       </c>
       <c r="I33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>58</v>
       </c>
       <c r="I34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>75</v>
       </c>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="28240" windowHeight="12000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="28240" windowHeight="14360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>git commit - am "blabla"</t>
+  </si>
+  <si>
+    <t>git status</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1204,9 @@
       <c r="I32" t="s">
         <v>70</v>
       </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>git status</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>heroku git:remote -a full-throttle</t>
+  </si>
+  <si>
+    <t>git push heroku master</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,43 +1136,43 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1169,46 +1181,52 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>70</v>
       </c>
       <c r="O32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -1218,8 +1236,11 @@
       <c r="O33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -1229,18 +1250,21 @@
       <c r="O34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>75</v>
       </c>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="28240" windowHeight="14360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="bike" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -237,9 +238,6 @@
     <t>Full_mark</t>
   </si>
   <si>
-    <t>edit console</t>
-  </si>
-  <si>
     <t>q=BrandBikeDb.create</t>
   </si>
   <si>
@@ -295,6 +293,207 @@
   </si>
   <si>
     <t>git push heroku master</t>
+  </si>
+  <si>
+    <t>supersoprt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand </t>
+  </si>
+  <si>
+    <t>naked</t>
+  </si>
+  <si>
+    <t>V Strom 1000</t>
+  </si>
+  <si>
+    <t>GSX-S1000</t>
+  </si>
+  <si>
+    <t>GDX-S750</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>bandit 1250S</t>
+  </si>
+  <si>
+    <t>GSX-R1000 /R</t>
+  </si>
+  <si>
+    <t>GSX-R750</t>
+  </si>
+  <si>
+    <t>GSX-R600</t>
+  </si>
+  <si>
+    <t>GSX250R</t>
+  </si>
+  <si>
+    <t>Boulevard M109R</t>
+  </si>
+  <si>
+    <t>Boulevard M90</t>
+  </si>
+  <si>
+    <t>V Strom 650</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>CBR1000RR</t>
+  </si>
+  <si>
+    <t>CBR600RR</t>
+  </si>
+  <si>
+    <t>VFR1200X</t>
+  </si>
+  <si>
+    <t>Africa twin</t>
+  </si>
+  <si>
+    <t>NC750X</t>
+  </si>
+  <si>
+    <t>CB500X</t>
+  </si>
+  <si>
+    <t>Gold wing</t>
+  </si>
+  <si>
+    <t>interstate</t>
+  </si>
+  <si>
+    <t>Fury / Stateline</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>Kawasaki</t>
+  </si>
+  <si>
+    <t>Ninja ZX-10R</t>
+  </si>
+  <si>
+    <t>Ninja H2</t>
+  </si>
+  <si>
+    <t>Ninja ZX-14R</t>
+  </si>
+  <si>
+    <t>Ninja 400</t>
+  </si>
+  <si>
+    <t>Ninja 650</t>
+  </si>
+  <si>
+    <t>Ninja 300</t>
+  </si>
+  <si>
+    <t>Z900</t>
+  </si>
+  <si>
+    <t>Z650</t>
+  </si>
+  <si>
+    <t>Z125</t>
+  </si>
+  <si>
+    <t>Versys 1000</t>
+  </si>
+  <si>
+    <t>Versys 650</t>
+  </si>
+  <si>
+    <t>Versys 300</t>
+  </si>
+  <si>
+    <t>Vulcan 1700</t>
+  </si>
+  <si>
+    <t>Vulcan S</t>
+  </si>
+  <si>
+    <t>Vulcan 900</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>YZF-R1</t>
+  </si>
+  <si>
+    <t>YZF-R1M</t>
+  </si>
+  <si>
+    <t>YZF-R6</t>
+  </si>
+  <si>
+    <t>YZF-R3</t>
+  </si>
+  <si>
+    <t>MT-10</t>
+  </si>
+  <si>
+    <t>MT-09</t>
+  </si>
+  <si>
+    <t>MT-07</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>V Star 250</t>
+  </si>
+  <si>
+    <t>V star 1300</t>
+  </si>
+  <si>
+    <t>Super Ténéré</t>
+  </si>
+  <si>
+    <t>HP4 Race</t>
+  </si>
+  <si>
+    <t>S 100RR</t>
+  </si>
+  <si>
+    <t>R 1200 RS</t>
+  </si>
+  <si>
+    <t>R 1200 R</t>
+  </si>
+  <si>
+    <t>F 800R</t>
+  </si>
+  <si>
+    <t>G 310 R</t>
+  </si>
+  <si>
+    <t>R 1200 GS</t>
+  </si>
+  <si>
+    <t>S 1000 XR</t>
+  </si>
+  <si>
+    <t>F 800 GS</t>
+  </si>
+  <si>
+    <t>F 700 GS</t>
+  </si>
+  <si>
+    <t>S 1000 R</t>
+  </si>
+  <si>
+    <t>console</t>
+  </si>
+  <si>
+    <t>rails c</t>
   </si>
 </sst>
 </file>
@@ -350,9 +549,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -361,8 +561,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -911,7 +1112,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,23 +1408,28 @@
       </c>
       <c r="D27" s="2"/>
     </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>84</v>
+      </c>
+      <c r="R32" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O32" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.2">
@@ -1231,13 +1437,13 @@
         <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.2">
@@ -1245,62 +1451,405 @@
         <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AG10"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>1300</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>750</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+      <c r="K5">
+        <v>1250</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>900</v>
+      </c>
+      <c r="N5">
+        <v>750</v>
+      </c>
+      <c r="O5">
+        <v>650</v>
+      </c>
+      <c r="P5">
+        <v>300</v>
+      </c>
+      <c r="Q5">
+        <v>125</v>
+      </c>
+      <c r="S5">
+        <v>1200</v>
+      </c>
+      <c r="T5">
+        <v>1000</v>
+      </c>
+      <c r="U5">
+        <v>750</v>
+      </c>
+      <c r="V5">
+        <v>650</v>
+      </c>
+      <c r="W5">
+        <v>500</v>
+      </c>
+      <c r="X5">
+        <v>300</v>
+      </c>
+      <c r="Z5">
+        <v>1800</v>
+      </c>
+      <c r="AA5">
+        <v>1462</v>
+      </c>
+      <c r="AB5">
+        <v>1300</v>
+      </c>
+      <c r="AC5">
+        <v>1300</v>
+      </c>
+      <c r="AE5">
+        <v>900</v>
+      </c>
+      <c r="AF5">
+        <v>650</v>
+      </c>
+      <c r="AG5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" t="s">
+        <v>125</v>
+      </c>
+      <c r="V8" t="s">
+        <v>126</v>
+      </c>
+      <c r="X8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T10" t="s">
+        <v>150</v>
+      </c>
+      <c r="U10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>rails c</t>
+  </si>
+  <si>
+    <t>git add .</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,12 +1416,17 @@
         <v>154</v>
       </c>
     </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>155</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="R31" t="s">
         <v>85</v>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="159">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>git add .</t>
+  </si>
+  <si>
+    <t>heroku run rake db:migrate</t>
+  </si>
+  <si>
+    <t>heroku run rails console</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1121,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,10 +1483,18 @@
       <c r="I36" t="s">
         <v>73</v>
       </c>
+      <c r="R36" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="bike" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="edit tips" sheetId="2" r:id="rId2"/>
+    <sheet name="bike list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -1120,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4080" yWindow="5080" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -503,6 +503,15 @@
   </si>
   <si>
     <t>heroku run rails console</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>Suzuki.ca</t>
+  </si>
+  <si>
+    <t>q.remove_pictureintro!</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,6 +1502,9 @@
       </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
       <c r="R38" t="s">
         <v>158</v>
       </c>
@@ -1535,339 +1547,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG10"/>
+  <dimension ref="A2:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>95</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5">
         <v>1300</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
         <v>750</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>600</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>400</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>250</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1250</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>900</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>750</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>650</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>300</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>125</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1200</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>750</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>650</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>500</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>300</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1800</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1462</v>
-      </c>
-      <c r="AB5">
-        <v>1300</v>
       </c>
       <c r="AC5">
         <v>1300</v>
       </c>
-      <c r="AE5">
+      <c r="AD5">
+        <v>1300</v>
+      </c>
+      <c r="AF5">
         <v>900</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>650</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>99</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>100</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>96</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>93</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>94</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>92</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>103</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>106</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>107</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>108</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>109</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>110</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>111</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>113</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>112</v>
       </c>
       <c r="AD7" t="s">
         <v>112</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>118</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>116</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>120</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>119</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>121</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>122</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>124</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>125</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>126</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>127</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>130</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>132</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>134</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>135</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>136</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>137</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>138</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>141</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>139</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>143</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>146</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>153</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>147</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>148</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>149</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>150</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>151</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>152</v>
       </c>
     </row>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57034C74-2F17-A046-9512-1AF79B908ED0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="5080" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2540" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="edit tips" sheetId="2" r:id="rId2"/>
     <sheet name="bike list" sheetId="3" r:id="rId3"/>
+    <sheet name="news" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="163">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -512,12 +514,15 @@
   </si>
   <si>
     <t>q.remove_pictureintro!</t>
+  </si>
+  <si>
+    <t>https://www.press.bmwgroup.com/global/article/topic/6629/bmw-motorrad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -591,6 +596,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -612,7 +620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -906,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1119,17 +1133,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -1546,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AH10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1892,4 +1906,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF686D-1DCF-CD45-8C9A-ECFE574CAC57}">
+  <dimension ref="B5:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{FF5BA30F-8192-AB42-8B07-09B9CE485309}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57034C74-2F17-A046-9512-1AF79B908ED0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C7B2D93-B6B1-464F-AA38-A214D0140D7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>https://www.press.bmwgroup.com/global/article/topic/6629/bmw-motorrad</t>
+  </si>
+  <si>
+    <t>heroku logs --tail</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,6 +1526,11 @@
         <v>158</v>
       </c>
     </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N67" t="s">
         <v>75</v>
@@ -1555,6 +1563,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1912,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF686D-1DCF-CD45-8C9A-ECFE574CAC57}">
   <dimension ref="B5:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C7B2D93-B6B1-464F-AA38-A214D0140D7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CDEB51C-018C-9D4B-9520-03A163073B52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="4040" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="165">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -520,13 +520,16 @@
   </si>
   <si>
     <t>heroku logs --tail</t>
+  </si>
+  <si>
+    <t>EDITOR=vi bin/rails credentials:edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,6 +560,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,11 +590,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1147,7 +1157,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,43 +1382,43 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1417,43 +1427,46 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="U30" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>155</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O32" t="s">
         <v>84</v>
       </c>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CDEB51C-018C-9D4B-9520-03A163073B52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40AE7496-68C9-2E45-A28B-CB598928068B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="4040" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40AE7496-68C9-2E45-A28B-CB598928068B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72AF3C68-0A85-7B4A-9AAE-806A97C556F1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="4040" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>EDITOR=vi bin/rails credentials:edit</t>
+  </si>
+  <si>
+    <t>heroku restart</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,6 +1545,11 @@
     <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R40" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72AF3C68-0A85-7B4A-9AAE-806A97C556F1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89C86C5D-82C2-6646-91D0-648E09C15F27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="4040" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="8280" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>heroku restart</t>
+  </si>
+  <si>
+    <t>heroku config:set RAILS_MASTER_KEY=`rake secret`</t>
+  </si>
+  <si>
+    <t>heroku config:set RAILS_MASTER_KEY=`cat config/master.key`</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,6 +1556,16 @@
     <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89C86C5D-82C2-6646-91D0-648E09C15F27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF5EA228-A232-9D4F-B5DF-942B4A858D2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="8280" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="5580" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,6 +1484,9 @@
       </c>
       <c r="R31" t="s">
         <v>85</v>
+      </c>
+      <c r="U31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF5EA228-A232-9D4F-B5DF-942B4A858D2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72BD5A1E-5CE4-3F44-9857-456CFAD72DE5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="5580" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="171">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -528,10 +528,19 @@
     <t>heroku restart</t>
   </si>
   <si>
-    <t>heroku config:set RAILS_MASTER_KEY=`rake secret`</t>
-  </si>
-  <si>
     <t>heroku config:set RAILS_MASTER_KEY=`cat config/master.key`</t>
+  </si>
+  <si>
+    <t>remove gem</t>
+  </si>
+  <si>
+    <t>bundle update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add gem</t>
+  </si>
+  <si>
+    <t>bundle install</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,8 +1475,14 @@
       <c r="I29" t="s">
         <v>154</v>
       </c>
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>168</v>
+      </c>
       <c r="O30" t="s">
         <v>81</v>
       </c>
@@ -1479,6 +1494,9 @@
       <c r="I31" t="s">
         <v>155</v>
       </c>
+      <c r="L31" t="s">
+        <v>169</v>
+      </c>
       <c r="O31" t="s">
         <v>156</v>
       </c>
@@ -1486,10 +1504,13 @@
         <v>85</v>
       </c>
       <c r="U31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>170</v>
+      </c>
       <c r="O32" t="s">
         <v>84</v>
       </c>
@@ -1559,16 +1580,6 @@
     <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="R44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="R45" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="67" spans="14:14" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72BD5A1E-5CE4-3F44-9857-456CFAD72DE5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FD7C912-C413-3849-8ACC-5AFDE9B9BDB4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="172">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>bundle install</t>
+  </si>
+  <si>
+    <t>page speed test</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,6 +1466,9 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FD7C912-C413-3849-8ACC-5AFDE9B9BDB4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14B2D9DD-7870-194B-BED5-4FFAD03BD42E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="26260" windowHeight="17560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="174">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>page speed test</t>
+  </si>
+  <si>
+    <t>rake assets:precompile</t>
+  </si>
+  <si>
+    <t>if change css</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,6 +1460,9 @@
         <v>37</v>
       </c>
       <c r="D24" s="2"/>
+      <c r="P24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
@@ -1461,6 +1470,9 @@
         <v>36</v>
       </c>
       <c r="D25" s="2"/>
+      <c r="P25" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14B2D9DD-7870-194B-BED5-4FFAD03BD42E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09F99130-9A41-D748-9563-0C9F0E5D975A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09F99130-9A41-D748-9563-0C9F0E5D975A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75C09103-6488-724F-B047-37F8B6E7219D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>if change css</t>
+  </si>
+  <si>
+    <t>rake sitemap:create</t>
+  </si>
+  <si>
+    <t>rake sitemap:refresh</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1190,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -1564,25 +1570,31 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>73</v>
       </c>
       <c r="R36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
         <v>161</v>
       </c>
@@ -1590,12 +1602,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
       <c r="R40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
         <v>165</v>
       </c>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75C09103-6488-724F-B047-37F8B6E7219D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D8DFF128-06D4-1D4A-AE6E-1433C85D63D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="178">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>rake sitemap:refresh</t>
+  </si>
+  <si>
+    <t>heroku run rake sitemap:create</t>
+  </si>
+  <si>
+    <t>heroku run rake sitemap:refresh</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1196,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,6 +1599,9 @@
       <c r="I37" t="s">
         <v>74</v>
       </c>
+      <c r="V37" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
@@ -1600,6 +1609,9 @@
       </c>
       <c r="R38" t="s">
         <v>158</v>
+      </c>
+      <c r="V38" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D8DFF128-06D4-1D4A-AE6E-1433C85D63D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E9DB22A-D958-E949-B321-C3D90417B4C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="179">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>heroku run rake sitemap:refresh</t>
+  </si>
+  <si>
+    <t>ceate / edit credential</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,6 +1503,11 @@
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I29" t="s">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E9DB22A-D958-E949-B321-C3D90417B4C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BB87BE4-4B9B-C941-BC1C-4BF18431015C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="4740" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3200" windowWidth="26260" windowHeight="12820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BB87BE4-4B9B-C941-BC1C-4BF18431015C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83E98F83-0F58-3C4C-972D-AE7940213125}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3200" windowWidth="26260" windowHeight="12820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="8220" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="180">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>ceate / edit credential</t>
+  </si>
+  <si>
+    <t>heroku run rake assets:precompile</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,6 +1498,9 @@
       <c r="D26" s="2"/>
       <c r="L26" t="s">
         <v>171</v>
+      </c>
+      <c r="P26" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83E98F83-0F58-3C4C-972D-AE7940213125}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F95B08D-746A-2747-B35C-828A78719B27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="8220" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,9 +546,6 @@
     <t>page speed test</t>
   </si>
   <si>
-    <t>rake assets:precompile</t>
-  </si>
-  <si>
     <t>if change css</t>
   </si>
   <si>
@@ -567,7 +564,10 @@
     <t>ceate / edit credential</t>
   </si>
   <si>
-    <t>heroku run rake assets:precompile</t>
+    <t>bundle exec rake assets:precompile</t>
+  </si>
+  <si>
+    <t>then push to github</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>72</v>
       </c>
       <c r="V35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>157</v>
       </c>
       <c r="V36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>74</v>
       </c>
       <c r="V37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>158</v>
       </c>
       <c r="V38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.2">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F95B08D-746A-2747-B35C-828A78719B27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAEA53E1-B50C-6046-A7FB-886B9D5C7DA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="8220" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -1202,7 +1202,7 @@
   <dimension ref="B3:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1500,7 @@
         <v>171</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
@@ -1509,6 +1509,9 @@
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
+      <c r="P27" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U28" t="s">

--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/Antoine/site web/full_throttle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAEA53E1-B50C-6046-A7FB-886B9D5C7DA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A8F2580-257B-694C-95ED-1DEC901C7289}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="8220" windowWidth="26260" windowHeight="12820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="26260" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="181">
   <si>
     <t>https://www.youtube.com/watch?v=4nyzl3pVXp4</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>then push to github</t>
+  </si>
+  <si>
+    <t>http://hondanews.com/powersports</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF686D-1DCF-CD45-8C9A-ECFE574CAC57}">
-  <dimension ref="B5:C5"/>
+  <dimension ref="B5:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2045,9 +2048,18 @@
         <v>162</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{FF5BA30F-8192-AB42-8B07-09B9CE485309}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{17BA5465-C207-9D4F-AFC4-0C15FD3C5FD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
